--- a/Template/Export/Sari_R5_3.xlsx
+++ b/Template/Export/Sari_R5_3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\Template\Export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -753,23 +753,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -805,23 +788,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1339,67 +1305,67 @@
         <v>17</v>
       </c>
       <c r="B5" s="34">
-        <f>SUM(B2:B4)</f>
+        <f t="shared" ref="B5:Q5" si="0">SUM(B2:B4)</f>
         <v>0</v>
       </c>
       <c r="C5" s="35">
-        <f>SUM(C2:C4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="36">
-        <f>SUM(D2:D4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="37">
-        <f>SUM(E2:E4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="37">
-        <f>SUM(F2:F4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="37">
-        <f>SUM(G2:G4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="37">
-        <f>SUM(H2:H4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="38">
-        <f>SUM(I2:I4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="12">
-        <f>SUM(J2:J4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f>SUM(K2:K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <f>SUM(L2:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f>SUM(M2:M4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>SUM(N2:N4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <f>SUM(O2:O4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5" s="4">
-        <f>SUM(P2:P4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <f>SUM(Q2:Q4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1542,67 +1508,67 @@
         <v>17</v>
       </c>
       <c r="B5" s="34">
-        <f>SUM(B2:B4)</f>
+        <f t="shared" ref="B5:Q5" si="0">SUM(B2:B4)</f>
         <v>0</v>
       </c>
       <c r="C5" s="35">
-        <f>SUM(C2:C4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="36">
-        <f>SUM(D2:D4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="37">
-        <f>SUM(E2:E4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="37">
-        <f>SUM(F2:F4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="37">
-        <f>SUM(G2:G4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="37">
-        <f>SUM(H2:H4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="38">
-        <f>SUM(I2:I4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="12">
-        <f>SUM(J2:J4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f>SUM(K2:K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <f>SUM(L2:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f>SUM(M2:M4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>SUM(N2:N4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <f>SUM(O2:O4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5" s="4">
-        <f>SUM(P2:P4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <f>SUM(Q2:Q4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1747,67 +1713,67 @@
         <v>17</v>
       </c>
       <c r="B5" s="34">
-        <f>SUM(B2:B4)</f>
+        <f t="shared" ref="B5:Q5" si="0">SUM(B2:B4)</f>
         <v>0</v>
       </c>
       <c r="C5" s="35">
-        <f>SUM(C2:C4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="36">
-        <f>SUM(D2:D4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="37">
-        <f>SUM(E2:E4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="37">
-        <f>SUM(F2:F4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="37">
-        <f>SUM(G2:G4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="37">
-        <f>SUM(H2:H4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="38">
-        <f>SUM(I2:I4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="12">
-        <f>SUM(J2:J4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f>SUM(K2:K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <f>SUM(L2:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f>SUM(M2:M4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>SUM(N2:N4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <f>SUM(O2:O4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5" s="4">
-        <f>SUM(P2:P4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <f>SUM(Q2:Q4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1820,9 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1953,67 +1917,67 @@
         <v>17</v>
       </c>
       <c r="B5" s="34">
-        <f>SUM(B2:B4)</f>
+        <f t="shared" ref="B5:Q5" si="0">SUM(B2:B4)</f>
         <v>0</v>
       </c>
       <c r="C5" s="35">
-        <f>SUM(C2:C4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="36">
-        <f>SUM(D2:D4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="37">
-        <f>SUM(E2:E4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="37">
-        <f>SUM(F2:F4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="37">
-        <f>SUM(G2:G4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="37">
-        <f>SUM(H2:H4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="38">
-        <f>SUM(I2:I4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="12">
-        <f>SUM(J2:J4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f>SUM(K2:K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <f>SUM(L2:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f>SUM(M2:M4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>SUM(N2:N4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <f>SUM(O2:O4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5" s="4">
-        <f>SUM(P2:P4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <f>SUM(Q2:Q4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2156,67 +2120,67 @@
         <v>17</v>
       </c>
       <c r="B5" s="34">
-        <f>SUM(B2:B4)</f>
+        <f t="shared" ref="B5:Q5" si="0">SUM(B2:B4)</f>
         <v>0</v>
       </c>
       <c r="C5" s="35">
-        <f>SUM(C2:C4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="36">
-        <f>SUM(D2:D4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="37">
-        <f>SUM(E2:E4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="37">
-        <f>SUM(F2:F4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="37">
-        <f>SUM(G2:G4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="37">
-        <f>SUM(H2:H4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="38">
-        <f>SUM(I2:I4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="12">
-        <f>SUM(J2:J4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f>SUM(K2:K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <f>SUM(L2:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f>SUM(M2:M4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>SUM(N2:N4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <f>SUM(O2:O4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5" s="4">
-        <f>SUM(P2:P4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <f>SUM(Q2:Q4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2359,67 +2323,67 @@
         <v>17</v>
       </c>
       <c r="B5" s="34">
-        <f>SUM(B2:B4)</f>
+        <f t="shared" ref="B5:Q5" si="0">SUM(B2:B4)</f>
         <v>0</v>
       </c>
       <c r="C5" s="35">
-        <f>SUM(C2:C4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="36">
-        <f>SUM(D2:D4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="37">
-        <f>SUM(E2:E4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="37">
-        <f>SUM(F2:F4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="37">
-        <f>SUM(G2:G4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="37">
-        <f>SUM(H2:H4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="38">
-        <f>SUM(I2:I4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="12">
-        <f>SUM(J2:J4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f>SUM(K2:K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <f>SUM(L2:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f>SUM(M2:M4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>SUM(N2:N4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <f>SUM(O2:O4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5" s="4">
-        <f>SUM(P2:P4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <f>SUM(Q2:Q4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/Template/Export/Sari_R5_3.xlsx
+++ b/Template/Export/Sari_R5_3.xlsx
@@ -20,7 +20,7 @@
     <sheet name="Inf B" sheetId="5" r:id="rId6"/>
     <sheet name="Metapnemovirus" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -36,9 +36,6 @@
     <t>1 a 4</t>
   </si>
   <si>
-    <t>5a 14</t>
-  </si>
-  <si>
     <t>15 a 54</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Nº casos positivos a Meta</t>
+  </si>
+  <si>
+    <t>5 a 14</t>
   </si>
 </sst>
 </file>
@@ -983,55 +983,55 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>8</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="31" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L1" s="41" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="O1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="Q1" s="43" t="s">
         <v>12</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="34">
         <f>SUM(B2:B4)</f>
@@ -1190,13 +1190,13 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>0</v>
@@ -1205,22 +1205,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>0</v>
@@ -1229,16 +1229,16 @@
         <v>2</v>
       </c>
       <c r="N1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1262,7 +1262,7 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="34">
         <f t="shared" ref="B5:Q5" si="0">SUM(B2:B4)</f>
@@ -1393,13 +1393,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>2</v>
       </c>
       <c r="N1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1465,7 +1465,7 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="34">
         <f t="shared" ref="B5:Q5" si="0">SUM(B2:B4)</f>
@@ -1598,13 +1598,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>0</v>
@@ -1613,22 +1613,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>2</v>
       </c>
       <c r="N1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="34">
         <f t="shared" ref="B5:Q5" si="0">SUM(B2:B4)</f>
@@ -1802,13 +1802,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>0</v>
@@ -1817,22 +1817,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         <v>2</v>
       </c>
       <c r="N1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1874,7 +1874,7 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="34">
         <f t="shared" ref="B5:Q5" si="0">SUM(B2:B4)</f>
@@ -2005,13 +2005,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>0</v>
@@ -2044,16 +2044,16 @@
         <v>2</v>
       </c>
       <c r="N1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2077,7 +2077,7 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="34">
         <f t="shared" ref="B5:Q5" si="0">SUM(B2:B4)</f>
@@ -2208,13 +2208,13 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>0</v>
@@ -2223,22 +2223,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>2</v>
       </c>
       <c r="N1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2280,7 +2280,7 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="40"/>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="34">
         <f t="shared" ref="B5:Q5" si="0">SUM(B2:B4)</f>

--- a/Template/Export/Sari_R5_3.xlsx
+++ b/Template/Export/Sari_R5_3.xlsx
@@ -19,13 +19,15 @@
     <sheet name="Inf A" sheetId="12" r:id="rId5"/>
     <sheet name="Inf B" sheetId="13" r:id="rId6"/>
     <sheet name="Metapnemovirus" sheetId="14" r:id="rId7"/>
+    <sheet name="SARS-CoV-2" sheetId="15" r:id="rId8"/>
+    <sheet name="Parameters" sheetId="16" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="39">
   <si>
     <t>VRS</t>
   </si>
@@ -94,13 +96,61 @@
   </si>
   <si>
     <t>2 a 4</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Hoja Global Resumen</t>
+  </si>
+  <si>
+    <t>Global semana epidemiologica</t>
+  </si>
+  <si>
+    <t>Hoja virus VRS</t>
+  </si>
+  <si>
+    <t>Hoja virus Ad</t>
+  </si>
+  <si>
+    <t>Hoja virus Parainfluenza</t>
+  </si>
+  <si>
+    <t>Parainfluenza</t>
+  </si>
+  <si>
+    <t>Hoja virus Inf A</t>
+  </si>
+  <si>
+    <t>Hoja virus Inf B</t>
+  </si>
+  <si>
+    <t>Hoja virus Metapnemovirus</t>
+  </si>
+  <si>
+    <t>Metapnemovirus</t>
+  </si>
+  <si>
+    <t>Hoja virus SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -138,6 +188,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -184,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -217,19 +273,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -350,64 +393,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -516,17 +501,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -544,32 +518,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -631,11 +579,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -645,52 +765,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,159 +804,230 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1161,228 +1334,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q11"/>
+  <dimension ref="A2:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="17" width="9.28515625" customWidth="1"/>
-    <col min="18" max="256" width="11.42578125" customWidth="1"/>
+    <col min="4" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="18" width="9.28515625" customWidth="1"/>
+    <col min="19" max="257" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="str">
+        <f>Parameters!$B$11 &amp; ": " &amp; Parameters!$C$11</f>
+        <v>País: Bolivia</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+    <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43" t="s">
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="45"/>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="97"/>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="O7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="P7" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="Q7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="R7" s="49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="S7" s="50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="22"/>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="26"/>
-    </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="58"/>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="63"/>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="65">
         <f>SUM(B8:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="18">
-        <f t="shared" ref="C11:I11" si="0">SUM(C8:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <f>SUM(J8:J10)</f>
+      <c r="C11" s="66">
+        <f t="shared" ref="C11:J11" si="0">SUM(C8:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="5">
@@ -1390,11 +1582,11 @@
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" ref="L11:Q11" si="1">SUM(L8:L10)</f>
+        <f>SUM(L8:L10)</f>
         <v>0</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M11:S11" si="1">SUM(M8:M10)</f>
         <v>0</v>
       </c>
       <c r="N11" s="5">
@@ -1413,12 +1605,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:S6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -1431,7 +1631,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1446,63 +1649,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="23"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43" t="s">
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="45"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97"/>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1511,22 +1714,22 @@
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="28" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -1535,125 +1738,125 @@
       <c r="K7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="O7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="P7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="63" t="s">
+      <c r="Q7" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="25">
         <f t="shared" ref="B11:Q11" si="0">SUM(B8:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="75">
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1677,7 +1880,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1696,7 +1899,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1711,63 +1917,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="23"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43" t="s">
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="45"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97"/>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1776,22 +1982,22 @@
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="28" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -1800,125 +2006,125 @@
       <c r="K7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="O7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="P7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="63" t="s">
+      <c r="Q7" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="25">
         <f t="shared" ref="B11:Q11" si="0">SUM(B8:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="75">
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1942,7 +2148,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1961,7 +2167,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1976,63 +2185,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="23"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43" t="s">
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="45"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97"/>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2041,22 +2250,22 @@
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="28" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -2065,125 +2274,125 @@
       <c r="K7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="O7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="P7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="63" t="s">
+      <c r="Q7" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="25">
         <f t="shared" ref="B11:Q11" si="0">SUM(B8:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="75">
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2207,7 +2416,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2226,7 +2435,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2241,63 +2453,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="23"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43" t="s">
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="45"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97"/>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2306,22 +2518,22 @@
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="28" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -2330,125 +2542,125 @@
       <c r="K7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="O7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="P7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="63" t="s">
+      <c r="Q7" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="25">
         <f t="shared" ref="B11:Q11" si="0">SUM(B8:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="75">
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2472,7 +2684,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2491,7 +2703,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2506,63 +2721,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="23"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43" t="s">
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="45"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97"/>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2571,22 +2786,22 @@
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="28" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -2595,125 +2810,125 @@
       <c r="K7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="O7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="P7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="63" t="s">
+      <c r="Q7" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="25">
         <f t="shared" ref="B11:Q11" si="0">SUM(B8:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="75">
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2737,7 +2952,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2756,7 +2971,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2771,63 +2989,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="23"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43" t="s">
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="45"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97"/>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2836,22 +3054,22 @@
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="28" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -2860,125 +3078,125 @@
       <c r="K7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="O7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="P7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="63" t="s">
+      <c r="Q7" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="25">
         <f t="shared" ref="B11:Q11" si="0">SUM(B8:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="75">
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3002,7 +3220,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3015,4 +3233,375 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="17" width="9.28515625" customWidth="1"/>
+    <col min="18" max="256" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97"/>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="78"/>
+    </row>
+    <row r="9" spans="1:17" s="83" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="88"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="25">
+        <f t="shared" ref="B11:Q11" si="0">SUM(B8:B10)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="J6:Q6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>